--- a/Scrapy/weibohot/weibohot16102020.xlsx
+++ b/Scrapy/weibohot/weibohot16102020.xlsx
@@ -50,6 +50,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16-10-2020-20-00-01" sheetId="41" state="visible" r:id="rId41"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16-10-2020-20-20-01" sheetId="42" state="visible" r:id="rId42"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16-10-2020-20-40-02" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16-10-2020-21-00-02" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16-10-2020-21-20-02" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16-10-2020-21-40-02" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16-10-2020-22-00-02" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16-10-2020-22-20-02" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="16-10-2020-22-40-01" sheetId="49" state="visible" r:id="rId49"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28739,6 +28745,4542 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>哇唧唧哇发文</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3345075</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>人口普查不收取任何费用</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2511163</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>金鹰节开幕式晚会</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1865987</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>苹果官网</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1509333</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>研究生九点不起床扣5分行为分</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1329982</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>成都大学回应毛洪涛去世</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1269386</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>男子为吓唬同学将核酸结果改成阳性</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1181296</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>英女王时隔7个月后首次参加公开活动</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1156162</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>秦牛rap时GAI的表情</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1135339</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>金星说谢娜主持两个极端</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>966093</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>iPhone12预售</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>898575</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>huanfeng的烬</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>858413</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>成都大学党委书记毛洪涛的遗体已被找到</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>856960</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>广州无症状感染者发声</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>841771</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SN JDG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>821122</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>王梓芠</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>810452</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>和对象接吻后擦嘴</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>797271</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4人26天捕鸟8万余只</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>774114</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>iPhone12Pro</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>767817</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>冯绍峰给赵丽颖的祝福评论被淹了</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>740770</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Huanfeng在JDG高地开狙</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>709958</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新包装iPhone11也不送耳机充电器</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>493487</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18岁女大学生捐献遗体</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>401096</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>该不该规定大学生起床时间</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>385322</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>宋威龙皮肤状态</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>383322</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>夏之光向粉丝鞠躬</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>380791</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>东北人屯菜有多夸张</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>377201</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>赵立坚批蓬佩奥睁着眼睛说瞎话</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>343111</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>苹果回应不配耳机和充电器</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>330689</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>唐艺昕首支vlog</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>329035</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>杨迪临场反应有多强</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>325949</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>把水果网套改造成麦穗</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>318309</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>广州大学</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>270659</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>火星情报局</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>268416</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>沈钲博</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>264559</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>李现西装生图</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>262117</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>韩国蜂窝煤价格暴涨</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>257065</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>中国新说唱</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>229126</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>战机遭鸟撞击飞行员规避居民区后跳伞</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>200868</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>退团</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>200690</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>R1SE新专预售及签售会推迟</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>200456</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>中国好声音</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>198071</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>定格拍照有多好笑</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>179436</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>小米长虹等被新华社点名</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>178949</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>青岛72小时</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>178001</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>高校开毛线手工艺课男生抢着上</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>174008</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>武警哨兵一招制敌持械挑衅男子</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>172881</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>乡村医生遗愿穿戴整齐捐给国家</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>172730</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>哇唧唧哇发文</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3157268</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>人口普查不收取任何费用</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2481256</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>宋威龙皮肤状态</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2453984</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>退团</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2174600</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>金鹰节开幕式晚会</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1720262</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>苹果官网</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1446650</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>男子为吓唬同学将核酸结果改成阳性</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1221245</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>英女王时隔7个月后首次参加公开活动</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1079111</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>研究生九点不起床扣5分行为分</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1064386</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>金鹰晚会打光</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>996796</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>成都大学回应毛洪涛去世</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>966697</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>iPhone12预售</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>957063</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>成都大学党委书记毛洪涛的遗体已被找到</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>955812</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>huanfeng的烬</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>942451</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>广州无症状感染者发声</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>927005</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>王梓芠</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>924675</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>广州大学</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>914947</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18岁女大学生捐献遗体</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>900218</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>和对象接吻后擦嘴</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>894797</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>秦牛rap时GAI的表情</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>811668</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>iPhone12Pro</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>741351</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Huanfeng在JDG高地开狙</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>455906</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4人26天捕鸟8万余只</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>423826</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>新包装iPhone11也不送耳机充电器</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>419036</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>金星说谢娜主持两个极端</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>400383</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>冯绍峰给赵丽颖的祝福评论被淹了</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>380590</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>中国新说唱</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>355964</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>赵立坚批蓬佩奥睁着眼睛说瞎话</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>353798</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>中国好声音</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>352468</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>夏之光向粉丝鞠躬</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>344504</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>唐艺昕首支vlog</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>337455</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>东北人屯菜有多夸张</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>329870</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>该不该规定大学生起床时间</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>324181</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>把水果网套改造成麦穗</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>302713</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>杨迪临场反应有多强</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>295619</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>李现西装生图</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>275981</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SN JDG</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>249461</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>火星情报局</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>232317</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>苹果回应不配耳机和充电器</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>213435</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>韩国蜂窝煤价格暴涨</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>199676</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>定格拍照有多好笑</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>186518</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>武警哨兵一招制敌持械挑衅男子</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>170867</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>高校开毛线手工艺课男生抢着上</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>167054</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>谭松韵宋威龙张新成神仙售后</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>166447</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>战机遭鸟撞击飞行员规避居民区后跳伞</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>166359</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>罗晋主持金鹰有点可爱</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>163815</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>白发大爷怒斥男子地铁不让座</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>162480</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>乡村医生遗愿穿戴整齐捐给国家</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>161919</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>哇唧唧哇发文</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3183796</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>人口普查不收取任何费用</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2885118</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>金鹰晚会打光</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2600955</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>退团</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2476145</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>宋威龙皮肤状态</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2260391</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>苹果官网</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1435502</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>男子为吓唬同学将核酸结果改成阳性</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1110329</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>英女王时隔7个月后首次参加公开活动</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>984554</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>金鹰节开幕式晚会</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>978662</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>研究生九点不起床扣5分行为分</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>972557</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>成都大学回应毛洪涛去世</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>882410</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>huanfeng的烬</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>676404</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>成都大学党委书记毛洪涛的遗体已被找到</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>668489</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>iPhone12预售</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>666322</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>罗晋主持金鹰有点可爱</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>647608</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>广州大学</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>613148</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>和对象接吻后擦嘴</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>607730</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4人26天捕鸟8万余只</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>577723</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>iPhone12Pro</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>532356</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>谭松韵宋威龙张新成神仙售后</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>516092</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>中国好声音</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>500822</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Huanfeng在JDG高地开狙</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>438237</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18岁女大学生捐献遗体</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>416232</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>新包装iPhone11也不送耳机充电器</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>415624</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>王梓芠</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>403401</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>秦牛rap时GAI的表情</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>390256</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>中国新说唱</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>340489</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>赵立坚批蓬佩奥睁着眼睛说瞎话</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>333893</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>东北人屯菜有多夸张</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>329455</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>金星说谢娜主持两个极端</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>322664</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>冯绍峰给赵丽颖的祝福评论被淹了</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>318613</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>把水果网套改造成麦穗</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>307326</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SN JDG</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>277475</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>广州无症状感染者发声</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>270241</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>夏之光向粉丝鞠躬</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>260878</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>唐艺昕首支vlog</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>253146</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>白发大爷怒斥男子地铁不让座</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>240100</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>该不该规定大学生起床时间</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>231689</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>定格拍照有多好笑</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>219497</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>火星情报局</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>216976</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>武警哨兵一招制敌持械挑衅男子</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>200380</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>赵今麦越来越好看</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>196859</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>金鹰女神宋茜出场方式</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>189867</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SN拿到赛点</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>187917</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>华夏幸福 恒大</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>179513</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>韩国蜂窝煤价格暴涨</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>179081</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>乡村医生遗愿穿戴整齐捐给国家</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>164243</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>苹果回应不配耳机和充电器</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>160572</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>金鹰女神宋茜出场方式</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3308191</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>人口普查不收取任何费用</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3080729</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>哇唧唧哇发文</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2972857</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>退团</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2556946</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>金鹰晚会打光</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2110772</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>苹果官网</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1267632</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>男子为吓唬同学将核酸结果改成阳性</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>993002</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>英女王时隔7个月后首次参加公开活动</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>833511</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>金鹰节开幕式晚会</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>832814</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>研究生九点不起床扣5分行为分</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>831739</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>罗晋主持金鹰有点可爱</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>830425</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>成都大学回应毛洪涛去世</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>824576</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>成都大学党委书记毛洪涛的遗体已被找到</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>803914</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>huanfeng的烬</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>800252</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SN淘汰JDG</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>665757</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>广州大学</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>656652</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>和对象接吻后擦嘴</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>627684</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4人26天捕鸟8万余只</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>614454</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>iPhone12Pro</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>594626</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>宋威龙皮肤状态</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>567478</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SN JDG</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>554932</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Huanfeng在JDG高地开狙</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18岁女大学生捐献遗体</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>499522</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>iPhone12预售</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>490123</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>赵今麦越来越好看</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>459225</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>谭松韵宋威龙张新成神仙售后</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>449127</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>中国好声音</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>425533</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>赵立坚批蓬佩奥睁着眼睛说瞎话</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>395020</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>新包装iPhone11也不送耳机充电器</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>391731</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>王梓芠</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>377928</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>秦牛rap时GAI的表情</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>357033</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>中国新说唱</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>333736</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>泰国爆发抗议示威活动</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>316147</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>东北人屯菜有多夸张</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>308831</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>金星说谢娜主持两个极端</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>308548</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>黄明昊粉丝回应</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>308484</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>白发大爷怒斥男子地铁不让座</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>307973</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>把水果网套改造成麦穗</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>263186</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>定格拍照有多好笑</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>240943</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>冯绍峰给赵丽颖的祝福评论被淹了</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>239103</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>广州无症状感染者发声</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>230209</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>武警哨兵一招制敌持械挑衅男子</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>226269</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>该不该规定大学生起床时间</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>199565</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>华夏幸福 恒大</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>153194</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>吴亦凡心疼小白</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>151646</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>火星情报局</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>150350</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NEXT王耀庆跳一剪梅</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>149168</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>乡村医生遗愿穿戴整齐捐给国家</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>147129</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>金鹰女神宋茜出场方式</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5641088</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>人口普查不收取任何费用</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3782986</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>罗晋主持金鹰有点可爱</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2769860</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>苹果官网</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1173651</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>赵今麦越来越好看</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1154506</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SN淘汰JDG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1074172</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>男子为吓唬同学将核酸结果改成阳性</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>845754</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>英女王时隔7个月后首次参加公开活动</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>803306</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>金鹰晚会打光</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>803213</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>研究生九点不起床扣5分行为分</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>803106</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>金鹰节开幕式晚会</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>803021</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>成都大学回应毛洪涛去世</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>801950</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>成都大学党委书记毛洪涛的遗体已被找到</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>733260</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>退团</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>723769</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>huanfeng的烬</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>669288</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>广州大学</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>667102</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>和对象接吻后擦嘴</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>581494</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4人26天捕鸟8万余只</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>552481</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>哇唧唧哇发文</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>503687</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>iPhone12Pro</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>432048</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>中国好声音</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>430018</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>包头3.8级地震</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>411387</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18岁女大学生捐献遗体</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>409124</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>谭松韵宋威龙张新成神仙售后</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>408970</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>宋威龙皮肤状态</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>408844</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Huanfeng在JDG高地开狙</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>408710</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SN JDG</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>402018</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>赵立坚批蓬佩奥睁着眼睛说瞎话</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>374044</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>黄明昊粉丝回应</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>371339</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>秦牛rap时GAI的表情</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>370645</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>白发大爷怒斥男子地铁不让座</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>367559</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>iPhone12预售</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>361553</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>泰国爆发抗议示威活动</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>353852</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>吴亦凡心疼小白</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>353088</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>王梓芠</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>352042</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>新包装iPhone11也不送耳机充电器</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>350718</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>中国新说唱</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>307046</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>东北人屯菜有多夸张</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>298154</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>冯绍峰给赵丽颖的祝福评论被淹了</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>290393</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>金星说谢娜主持两个极端</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>286791</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GALI现场diss新说唱</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>279682</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>把水果网套改造成麦穗</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>257698</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>定格拍照有多好笑</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>238384</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SN晋级四强</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>232550</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>历届金鹰女神</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>228942</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>民警守护流浪母子700多天</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>228409</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>武警哨兵一招制敌持械挑衅男子</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>228272</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>乡村医生遗愿穿戴整齐捐给国家</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>223354</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>热搜</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>热度</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>金鹰女神宋茜出场方式</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6107743</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>人口普查不收取任何费用</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4313909</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>赵今麦越来越好看</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2590637</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>苹果官网</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1131881</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>罗晋主持金鹰有点可爱</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1080053</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>研究生九点不起床扣5分行为分</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>986485</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>男子为吓唬同学将核酸结果改成阳性</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>943615</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>英女王时隔7个月后首次参加公开活动</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>936228</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>金鹰晚会打光</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>935757</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SN淘汰JDG</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>931412</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>成都大学回应毛洪涛去世</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>763861</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>金鹰节开幕式晚会</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>711360</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>成都大学党委书记毛洪涛的遗体已被找到</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>564508</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>退团</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>563084</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>huanfeng的烬</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>542425</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>历届金鹰女神</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>532948</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>广州大学</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>506156</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4人26天捕鸟8万余只</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>487939</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>谭松韵宋威龙张新成神仙售后</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>471348</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>和对象接吻后擦嘴</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>459250</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>iPhone12Pro</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>427345</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新包装iPhone11也不送耳机充电器</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>421719</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>18岁女大学生捐献遗体</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>386611</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>哇唧唧哇发文</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>386096</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>宋威龙皮肤状态</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>382641</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>白发大爷怒斥男子地铁不让座</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>378383</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>包头3.8级地震</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>377179</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>赵立坚批蓬佩奥睁着眼睛说瞎话</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>332581</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GALI现场diss新说唱</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>324273</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>黄明昊粉丝回应</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>323174</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>中国好声音</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>315930</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Huanfeng在JDG高地开狙</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>309000</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>泰国爆发抗议示威活动</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>295818</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>吴亦凡心疼小白</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>295681</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>秦牛rap时GAI的表情</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>295131</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>iPhone12预售</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>293946</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>东北人屯菜有多夸张</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>290883</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SN JDG</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>262788</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>把水果网套改造成麦穗</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>246662</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SN晋级四强</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>214349</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>迪丽热巴的金鹰造型</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>175795</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>民警守护流浪母子700多天</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>162850</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>心疼Zoom</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>147640</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>汪涵唱rap</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>143780</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>牙膏的佐伊</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>140379</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>中国新说唱</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>137941</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>乡村医生遗愿穿戴整齐捐给国家</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>134849</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>定格拍照有多好笑</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>128961</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
